--- a/_raw/price/__price_preproc/gbr_tax/gbr_tax_prices_calculations.xlsx
+++ b/_raw/price/__price_preproc/gbr_tax/gbr_tax_prices_calculations.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://resources-my.sharepoint.com/personal/gdolphin_rff_org/Documents/Documents/Research/projects/ecp/wcpd_dataset/source_data/design_and_prices/prices/United_Kingdom/calculations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gd/GitHub/WorldCarbonPricingDatabase/_raw/price/__price_preproc/gbr_tax/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{ACB74B98-6EBA-3F4F-A6FA-6BABD2BBCD32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0FA892B2-48A4-3548-9453-63D4C3629764}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4F13E6-8D9F-1241-8DA0-6D05B7581B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15940" xr2:uid="{A94BCCCA-FCD6-CE43-9E5D-2EF4C22116F5}"/>
+    <workbookView xWindow="15100" yWindow="1640" windowWidth="27240" windowHeight="15940" xr2:uid="{A94BCCCA-FCD6-CE43-9E5D-2EF4C22116F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>https://www.gov.uk/government/statistics/climate-change-levy-ccl-and-carbon-price-floor-cpf-bulletin/climate-change-levy-and-carbon-price-floor-historic-rates</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Rate from</t>
   </si>
@@ -76,6 +74,15 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/guidance/climate-change-levy-rates</t>
+  </si>
+  <si>
+    <t>https://webarchive.nationalarchives.gov.uk/ukgwa/20211221185254/https://www.gov.uk/government/statistics/climate-change-levy-ccl-and-carbon-price-floor-cpf-bulletin/climate-change-levy-and-carbon-price-floor-historic-rates</t>
+  </si>
+  <si>
+    <t>Sources</t>
   </si>
 </sst>
 </file>
@@ -119,10 +126,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,55 +445,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CA62E0-E63B-BF41-8D31-736BD1F78CCB}">
-  <dimension ref="A4:G26"/>
+  <dimension ref="A4:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B26"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -580,81 +588,155 @@
         <v>5.7110000000000001E-2</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>42826</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>3.31E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>43191</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>3.31E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>43556</v>
+      </c>
+      <c r="B12">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>3.31E-3</v>
+      </c>
+    </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A13" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B13">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>3.31E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>3.31E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>2013</v>
       </c>
-      <c r="B19">
+      <c r="B24">
         <f>B6</f>
         <v>4.9400000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>2014</v>
       </c>
-      <c r="B20">
+      <c r="B25">
         <f>3/12*B6+9/12*B7</f>
         <v>8.3975000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>2015</v>
       </c>
-      <c r="B21">
+      <c r="B26">
         <f>3/12*B7+9/12*B8</f>
         <v>15.947499999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>2016</v>
       </c>
-      <c r="B22">
+      <c r="B27">
         <f>3/12*B8+9/12*B9</f>
         <v>18.02</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>2017</v>
       </c>
-      <c r="B23">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="B28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>2018</v>
       </c>
-      <c r="B24">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="B29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>2019</v>
       </c>
-      <c r="B25">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="B30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>2020</v>
       </c>
-      <c r="B26">
+      <c r="B31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2021</v>
+      </c>
+      <c r="B32">
         <v>18</v>
       </c>
     </row>
